--- a/com.investing/src/test/resources/doSearch.xlsx
+++ b/com.investing/src/test/resources/doSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\IdeaProjects\SeleniumBootcamp\com.investing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954646B-ECF4-4598-8BD7-27147F48C2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EBA1EB-A0AB-48DB-B077-8DB6938D9CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{835F382D-5F6C-4D1E-A66C-28EB9F7B5D2A}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9468" xr2:uid="{835F382D-5F6C-4D1E-A66C-28EB9F7B5D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>search term</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Bonds</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Uranium</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812FDFB5-F443-4912-B8B5-321A946F2D67}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +423,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -433,6 +439,16 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
